--- a/Day7/JOINS_loogika_kahe_tabeli_puhul.xlsx
+++ b/Day7/JOINS_loogika_kahe_tabeli_puhul.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsk-my.sharepoint.com/personal/virve_rani_bcs_ee/Documents/Documents/Andmetarkus/Day7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{70788470-3D84-4242-B679-57C116F7D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E325F93-41E3-4DE2-B620-85E96110404E}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{70788470-3D84-4242-B679-57C116F7D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434D9C05-17F9-4FAE-99ED-260484FB166F}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-4020" windowWidth="19420" windowHeight="11500" xr2:uid="{C4777146-FCE6-4EDA-ADF6-ED4ABFDCD23F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Left join" sheetId="1" r:id="rId1"/>
+    <sheet name="Right join" sheetId="2" r:id="rId2"/>
+    <sheet name="Inner join" sheetId="3" r:id="rId3"/>
+    <sheet name="Full outer join" sheetId="4" r:id="rId4"/>
+    <sheet name="Left Join + Is null" sheetId="5" r:id="rId5"/>
+    <sheet name="Right join + Is null" sheetId="6" r:id="rId6"/>
+    <sheet name="Full outer join + is null" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="36">
   <si>
     <t>SalesRepTable</t>
   </si>
@@ -75,6 +81,99 @@
   </si>
   <si>
     <t xml:space="preserve">LEFT JOIN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIGHT JOIN </t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>FULL OUTER JOIN</t>
+  </si>
+  <si>
+    <t>LEFT JOIN + IS NULL</t>
+  </si>
+  <si>
+    <t>RIGHT JOIN + IS NULL</t>
+  </si>
+  <si>
+    <t>FULL OUTER JOIN + IS NULL</t>
+  </si>
+  <si>
+    <t>SELECT *
+ FROM SalesRepTable 
+LEFT JOIN BudgetTable
+ON SalesRepTable.SalesRepID = BudgetTable.SalesRepID</t>
+  </si>
+  <si>
+    <t>SELECT *
+ FROM SalesRepTable 
+RIGHT JOIN BudgetTable
+ON SalesRepTable.SalesRepID = BudgetTable.SalesRepID</t>
+  </si>
+  <si>
+    <t>SELECT *
+ FROM SalesRepTable 
+INNER JOIN BudgetTable
+ON SalesRepTable.SalesRepID = BudgetTable.SalesRepID</t>
+  </si>
+  <si>
+    <t>SELECT *
+ FROM SalesRepTable 
+FULL OUTER JOIN BudgetTable
+ON SalesRepTable.SalesRepID = BudgetTable.SalesRepID</t>
+  </si>
+  <si>
+    <t>SELECT *
+ FROM SalesRepTable 
+LEFT JOIN BudgetTable
+ON SalesRepTable.SalesRepID = BudgetTable.SalesRepID
+WHERE BudgetTable.SalesRepID IS NULL</t>
+  </si>
+  <si>
+    <t>SELECT *
+ FROM SalesRepTable 
+RIGHT JOIN BudgetTable
+ON SalesRepTable.SalesRepID = BudgetTable.SalesRepID
+WHERE SalesRepTable.SalesRepID IS NULL</t>
+  </si>
+  <si>
+    <t>SELECT *
+ FROM SalesRepTable 
+FULL OUTER JOIN BudgetTable
+ON SalesRepTable.SalesRepID = BudgetTable.SalesRepID
+WHERE SalesRepTable.SalesRepID IS NULL OR BudgetTable.SalesRepID IS NULL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESULT: </t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Kõik read müügiesindaja tabelist ja seotud read eelarve tabelist.</t>
+  </si>
+  <si>
+    <t>Kõik read eelarvetabelist ja seotud read müügiesindaja tabelist.</t>
+  </si>
+  <si>
+    <t>Kõik read, mis on olemas nii müügiesindaja tabelis kui ka eelarve tabelis.</t>
+  </si>
+  <si>
+    <t>Kõik read eelarve ja müügiesindaja tabelist.</t>
+  </si>
+  <si>
+    <t>Müügiesindaja tabelist read, mida eelarve tabelis ei ole.</t>
+  </si>
+  <si>
+    <t>RESULT:</t>
+  </si>
+  <si>
+    <t>Kõik read eelarve tabelist, mida müügiesindaja tabelis pole.</t>
+  </si>
+  <si>
+    <t>Read, mis on puudu müügiesindaja tabelist või eelarve tabelist.</t>
   </si>
 </sst>
 </file>
@@ -99,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +229,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -143,13 +248,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -165,6 +277,353 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1098550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>849984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97509BAC-928B-5807-C99A-E627D097E57F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6680200" y="234950"/>
+          <a:ext cx="1784350" cy="2088234"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>501892</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57373</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{512AF357-6061-C16C-C3C4-32C296B87929}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6743700" y="1219200"/>
+          <a:ext cx="1733792" cy="1600423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1111250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E34EB02-4ECD-6881-169F-B1CEC0D05514}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6692900" y="1028700"/>
+          <a:ext cx="1587500" cy="1797610"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1085850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>235165</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1251157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85EC3D46-E4E2-89FC-4CCE-52FB57196354}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6667500" y="1238250"/>
+          <a:ext cx="1543265" cy="1486107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266907</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1197194</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D3B90F-5592-A8F1-CCCB-94993E8DBB26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6756400" y="1098550"/>
+          <a:ext cx="1486107" cy="1571844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254210</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1181323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E8DB93-D58F-8495-7B97-0A0A3C9DF6B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="1054100"/>
+          <a:ext cx="1505160" cy="1600423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1428984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F0A6191-E46A-AB91-CE23-F22D2295A0FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6775450" y="1225550"/>
+          <a:ext cx="1790950" cy="1676634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,17 +943,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C91FECC-ACAA-4EF0-9CBC-56BC4888A5AC}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.90625" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" customWidth="1"/>
     <col min="6" max="6" width="16.81640625" customWidth="1"/>
@@ -565,7 +1024,1028 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB884BB-7B7B-4EBA-95F3-C6E9035384DF}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6678585-B1AD-431A-AC11-359D9234828D}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{324FCDA9-E5EF-489C-A8F3-BE2D8EC08986}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9144E98C-C1ED-48C0-8905-7B02CABD9A84}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA42F34F-779A-4A39-8F81-9F505FF76428}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="25.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875ADB16-7737-4FA4-919A-F5569141537D}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="30.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="130" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Day7/JOINS_loogika_kahe_tabeli_puhul.xlsx
+++ b/Day7/JOINS_loogika_kahe_tabeli_puhul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcsk-my.sharepoint.com/personal/virve_rani_bcs_ee/Documents/Documents/Andmetarkus/Day7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="8_{70788470-3D84-4242-B679-57C116F7D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{434D9C05-17F9-4FAE-99ED-260484FB166F}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="8_{70788470-3D84-4242-B679-57C116F7D8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D26C8BB-1A57-4746-AD97-CDDF68BCE804}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-4020" windowWidth="19420" windowHeight="11500" xr2:uid="{C4777146-FCE6-4EDA-ADF6-ED4ABFDCD23F}"/>
+    <workbookView xWindow="-19310" yWindow="-4020" windowWidth="19420" windowHeight="11500" firstSheet="5" activeTab="7" xr2:uid="{C4777146-FCE6-4EDA-ADF6-ED4ABFDCD23F}"/>
   </bookViews>
   <sheets>
     <sheet name="Left join" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Left Join + Is null" sheetId="5" r:id="rId5"/>
     <sheet name="Right join + Is null" sheetId="6" r:id="rId6"/>
     <sheet name="Full outer join + is null" sheetId="8" r:id="rId7"/>
+    <sheet name="Mitu rida ühes tabelis" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="49">
   <si>
     <t>SalesRepTable</t>
   </si>
@@ -175,12 +176,54 @@
   <si>
     <t>Read, mis on puudu müügiesindaja tabelist või eelarve tabelist.</t>
   </si>
+  <si>
+    <t>LEFT JOIN</t>
+  </si>
+  <si>
+    <t>YearMonth</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2025-02</t>
+  </si>
+  <si>
+    <t>2025-03</t>
+  </si>
+  <si>
+    <t>SalesTable</t>
+  </si>
+  <si>
+    <t>SalesSum</t>
+  </si>
+  <si>
+    <t>SaleID</t>
+  </si>
+  <si>
+    <t>S001</t>
+  </si>
+  <si>
+    <t>S002</t>
+  </si>
+  <si>
+    <t>S003</t>
+  </si>
+  <si>
+    <t>S004</t>
+  </si>
+  <si>
+    <t>SELECT *
+ FROM BudgetTable 
+LEFT JOIN SalesTable
+ON BudgetTable.YearMonth = SalesTable.YearMonth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,8 +240,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,6 +285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -248,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -262,6 +318,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C91FECC-ACAA-4EF0-9CBC-56BC4888A5AC}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1881,8 +1940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875ADB16-7737-4FA4-919A-F5569141537D}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2048,4 +2107,246 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B24E220-A701-4481-9D50-2499BAF670C5}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.90625" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>4000</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>5000</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>4000</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15">
+        <v>4000</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>4000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>5000</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>4000</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>